--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2129043.195714797</v>
+        <v>2124738.85590493</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>148.6865099692901</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>227.9187527607135</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>140.3622687076285</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.6257021313072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>262.3364400349696</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>100.2948550131246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>123.7911484401891</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>233.6084191422256</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>38.95088139476626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>89.14525753719006</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>39.78482982414712</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.06945288101422</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192.8393540319102</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>162.1578472931577</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>170.9320498237834</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611524</v>
+        <v>18.47335059663023</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>90.06308666747638</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>181.1418212173152</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.97774435452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>104.3471808964266</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101254</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>135.3738350208472</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101254</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>270.482877289631</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,19 +2058,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>212.3267021497101</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>105.1669704749672</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.49215756129218</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>266.6768941934171</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>14.92158678358339</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>180.6670586121386</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>115.8627380890762</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>185.404873121236</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.1670622275113</v>
+        <v>574.0438072739736</v>
       </c>
       <c r="C2" t="n">
-        <v>634.1670622275113</v>
+        <v>574.0438072739736</v>
       </c>
       <c r="D2" t="n">
-        <v>634.1670622275113</v>
+        <v>423.8554133655997</v>
       </c>
       <c r="E2" t="n">
-        <v>634.1670622275113</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>367.7894056603333</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
         <v>137.5684432757741</v>
@@ -4327,55 +4327,55 @@
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.2826908791755</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052536</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.51749475159</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030597</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991306</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358402</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601761</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946894</v>
+        <v>840.4214638411512</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946894</v>
+        <v>840.4214638411512</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946894</v>
+        <v>840.4214638411512</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946894</v>
+        <v>840.4214638411512</v>
       </c>
       <c r="X2" t="n">
-        <v>634.1670622275113</v>
+        <v>840.4214638411512</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275113</v>
+        <v>840.4214638411512</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.0315200613718</v>
+        <v>337.3302090828924</v>
       </c>
       <c r="C3" t="n">
-        <v>170.0315200613718</v>
+        <v>162.8771798017654</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699348</v>
+        <v>95.78113116957454</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302314</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263947</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891328</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428385</v>
+        <v>826.7196740428367</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110958</v>
+        <v>591.567565811094</v>
       </c>
       <c r="W3" t="n">
-        <v>337.3302090828942</v>
+        <v>337.3302090828924</v>
       </c>
       <c r="X3" t="n">
-        <v>337.3302090828942</v>
+        <v>337.3302090828924</v>
       </c>
       <c r="Y3" t="n">
-        <v>170.0315200613718</v>
+        <v>337.3302090828924</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>824.7550574840164</v>
+        <v>608.2207521101576</v>
       </c>
       <c r="C4" t="n">
-        <v>655.8188745561096</v>
+        <v>439.2845691822507</v>
       </c>
       <c r="D4" t="n">
-        <v>505.7022351437738</v>
+        <v>439.2845691822507</v>
       </c>
       <c r="E4" t="n">
-        <v>505.7022351437738</v>
+        <v>291.3714755998576</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8122876458634</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008669</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075538</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="V4" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="W4" t="n">
-        <v>926.0629918407079</v>
+        <v>789.8692169403973</v>
       </c>
       <c r="X4" t="n">
-        <v>926.0629918407079</v>
+        <v>789.8692169403973</v>
       </c>
       <c r="Y4" t="n">
-        <v>824.7550574840164</v>
+        <v>789.8692169403973</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380.4820441686398</v>
+        <v>432.4256445709454</v>
       </c>
       <c r="C5" t="n">
-        <v>380.4820441686398</v>
+        <v>166.0479880037675</v>
       </c>
       <c r="D5" t="n">
-        <v>380.4820441686398</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>380.4820441686398</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>373.5365434194364</v>
+        <v>34.06092317356494</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358178</v>
+        <v>432.4256445709454</v>
       </c>
       <c r="V5" t="n">
-        <v>380.4820441686398</v>
+        <v>432.4256445709454</v>
       </c>
       <c r="W5" t="n">
-        <v>380.4820441686398</v>
+        <v>432.4256445709454</v>
       </c>
       <c r="X5" t="n">
-        <v>380.4820441686398</v>
+        <v>432.4256445709454</v>
       </c>
       <c r="Y5" t="n">
-        <v>380.4820441686398</v>
+        <v>432.4256445709454</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>425.79448088292</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>251.341451601793</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>251.341451601793</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>251.341451601793</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>104.8068936286779</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>104.8068936286779</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>946.4739215287841</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166544</v>
+        <v>718.3380755655976</v>
       </c>
       <c r="V6" t="n">
-        <v>887.8833378166544</v>
+        <v>483.1859673338549</v>
       </c>
       <c r="W6" t="n">
-        <v>633.6459810884528</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>425.79448088292</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>425.79448088292</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.945490768482</v>
+        <v>352.1449104027198</v>
       </c>
       <c r="C7" t="n">
-        <v>350.0093078405752</v>
+        <v>183.2087274748129</v>
       </c>
       <c r="D7" t="n">
-        <v>199.8926684282394</v>
+        <v>183.2087274748129</v>
       </c>
       <c r="E7" t="n">
-        <v>199.8926684282394</v>
+        <v>183.2087274748129</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.31877997690253</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.31877997690253</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.31877997690253</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.31877997690253</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T7" t="n">
-        <v>700.5939555987218</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U7" t="n">
-        <v>700.5939555987218</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V7" t="n">
-        <v>700.5939555987218</v>
+        <v>800.1710318001375</v>
       </c>
       <c r="W7" t="n">
-        <v>700.5939555987218</v>
+        <v>533.7933752329595</v>
       </c>
       <c r="X7" t="n">
-        <v>700.5939555987218</v>
+        <v>533.7933752329595</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.5939555987218</v>
+        <v>533.7933752329595</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1975.636202072111</v>
+        <v>637.6587833110161</v>
       </c>
       <c r="C8" t="n">
-        <v>1606.673685131699</v>
+        <v>637.6587833110161</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.407986524948</v>
+        <v>637.6587833110161</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>637.6587833110161</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353408</v>
+        <v>226.6728785214086</v>
       </c>
       <c r="G8" t="n">
-        <v>421.715859727008</v>
+        <v>215.0070605534798</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467177</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607417</v>
+        <v>442.1757437607436</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904592</v>
+        <v>795.1862829045958</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550196</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661162</v>
+        <v>2540.564622661172</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342781</v>
+        <v>2351.810676439065</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342781</v>
+        <v>2098.229497964634</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342781</v>
+        <v>1767.166610621064</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342781</v>
+        <v>1414.39795535095</v>
       </c>
       <c r="X8" t="n">
-        <v>2560.562760342781</v>
+        <v>1414.39795535095</v>
       </c>
       <c r="Y8" t="n">
-        <v>2170.423428366969</v>
+        <v>1024.258623375138</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010759</v>
+        <v>929.5097208010864</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199594</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587081</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532526</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801376</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763258</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>69.87120530446212</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637187</v>
+        <v>113.4887579637193</v>
       </c>
       <c r="K9" t="n">
-        <v>458.2429073401568</v>
+        <v>559.9063389572718</v>
       </c>
       <c r="L9" t="n">
-        <v>1091.982190524995</v>
+        <v>854.4423223907539</v>
       </c>
       <c r="M9" t="n">
-        <v>1455.048658999296</v>
+        <v>1217.508790865056</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471865</v>
+        <v>1604.593193337626</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459254</v>
+        <v>1936.480003325016</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888879</v>
+        <v>2421.055229888888</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442624</v>
+        <v>2536.272628442634</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.826280251707</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2230.816477685356</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751575</v>
+        <v>2002.726321751585</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519832</v>
+        <v>1767.574213519843</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791631</v>
+        <v>1513.336856791641</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586098</v>
+        <v>1305.485356586108</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821144</v>
+        <v>1097.725057821154</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199.9560228422491</v>
+        <v>461.2368923627312</v>
       </c>
       <c r="C10" t="n">
-        <v>199.9560228422491</v>
+        <v>292.3007094348243</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9560228422491</v>
+        <v>142.1840700224886</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9560228422491</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9560228422491</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422491</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380141</v>
+        <v>76.63468308380186</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676566</v>
+        <v>248.2500215676575</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368917</v>
+        <v>523.3850043368932</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904032</v>
+        <v>823.8653899904052</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616503</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.128892699196</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.147591173601</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="U10" t="n">
-        <v>927.0292176682433</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="V10" t="n">
-        <v>672.3447294623564</v>
+        <v>1381.084657271479</v>
       </c>
       <c r="W10" t="n">
-        <v>382.9275594253958</v>
+        <v>1091.667487234518</v>
       </c>
       <c r="X10" t="n">
-        <v>382.9275594253958</v>
+        <v>863.677936336501</v>
       </c>
       <c r="Y10" t="n">
-        <v>199.9560228422491</v>
+        <v>642.8853571929709</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>802.9288273958707</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304619</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.359422267658</v>
       </c>
       <c r="X13" t="n">
-        <v>1394.184733704551</v>
+        <v>1205.369871369641</v>
       </c>
       <c r="Y13" t="n">
-        <v>1173.392154561021</v>
+        <v>984.5772922261104</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232836</v>
+        <v>986.1256051221252</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>817.1894221942183</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>667.0727827818826</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>519.1596891994894</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>372.2697417015791</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855601</v>
       </c>
       <c r="U16" t="n">
-        <v>1954.146591037918</v>
+        <v>1871.240688199799</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.462102832031</v>
+        <v>1616.556199993912</v>
       </c>
       <c r="W16" t="n">
-        <v>1410.044932795071</v>
+        <v>1616.556199993912</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.055381897053</v>
+        <v>1388.566649095895</v>
       </c>
       <c r="Y16" t="n">
-        <v>961.2628027535234</v>
+        <v>1167.774069952365</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168619</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5551,16 +5551,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.2946447138415</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3584617859347</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2418223735989</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3287287912058</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138415</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,19 +6065,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>115.6734722078199</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6633,40 +6633,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2323.864695427313</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2104.263230450254</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1560.161572207406</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533.5582272005026</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1708.090480315137</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1453.405992109251</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1163.98882207229</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>935.9992711742725</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>715.2066920307424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556945</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D37" t="n">
-        <v>565.7099969556945</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>417.7969033733013</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="38">
@@ -7165,61 +7165,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.5507239167111</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888043</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.398488825459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.981318788498</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X43" t="n">
-        <v>1120.991767890481</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.1991887469509</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7630,10 +7630,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7648,19 +7648,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7736,19 +7736,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127174</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140414</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775062</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127281</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>161.774902045797</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084415</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>239.9392607416634</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.8542358274173</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>62.89964020220124</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>30.15030327142162</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>15.70159709961013</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.5498640939298</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>74.19629618688089</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>40.25407754796406</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5341284403524</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>19.50758019582707</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>130.4994612393479</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>37.91759473995617</v>
       </c>
     </row>
     <row r="38">
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>136.2749052347518</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>101.118125215355</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.284775254</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911926</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580786</v>
+        <v>390680.0076580814</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606936</v>
+        <v>507909.2320606917</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911395</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101759</v>
+        <v>95270.2377910182</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250332.6659748621</v>
+        <v>250332.6659748622</v>
       </c>
       <c r="C4" t="n">
-        <v>250332.6659748621</v>
+        <v>250332.6659748622</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555026</v>
+        <v>139261.6527555018</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26453,7 +26453,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426617</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567893</v>
+        <v>92902.86757567913</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398213.1666187164</v>
+        <v>-398213.166618716</v>
       </c>
       <c r="C6" t="n">
-        <v>281874.8139724767</v>
+        <v>281874.8139724768</v>
       </c>
       <c r="D6" t="n">
-        <v>-27589.24483765512</v>
+        <v>-27589.24483765692</v>
       </c>
       <c r="E6" t="n">
-        <v>-34407.56539612761</v>
+        <v>-34754.94465048279</v>
       </c>
       <c r="F6" t="n">
-        <v>473501.6666645657</v>
+        <v>473154.2874102089</v>
       </c>
       <c r="G6" t="n">
-        <v>473501.6666645662</v>
+        <v>473154.2874102088</v>
       </c>
       <c r="H6" t="n">
-        <v>473501.6666645659</v>
+        <v>473154.2874102095</v>
       </c>
       <c r="I6" t="n">
-        <v>473501.666664566</v>
+        <v>473154.287410209</v>
       </c>
       <c r="J6" t="n">
-        <v>404502.512245452</v>
+        <v>404155.1329910952</v>
       </c>
       <c r="K6" t="n">
-        <v>473501.666664566</v>
+        <v>473154.2874102092</v>
       </c>
       <c r="L6" t="n">
-        <v>378231.4288735484</v>
+        <v>377884.0496191912</v>
       </c>
       <c r="M6" t="n">
-        <v>340783.690969097</v>
+        <v>340436.3117147404</v>
       </c>
       <c r="N6" t="n">
-        <v>473501.6666645661</v>
+        <v>473154.2874102094</v>
       </c>
       <c r="O6" t="n">
-        <v>473501.6666645661</v>
+        <v>473154.2874102088</v>
       </c>
       <c r="P6" t="n">
-        <v>473501.666664566</v>
+        <v>473154.2874102091</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627826</v>
+        <v>933.7024595627846</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856953</v>
+        <v>640.1406900856979</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933043</v>
+        <v>319.6474457933066</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788912</v>
+        <v>434.2730407788896</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841918</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841894</v>
+        <v>376.4268100841918</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841918</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619748</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>205.9965316513928</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.216490070756</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>184.9154218849965</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7.082796857010294</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.05699364599715</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>24.1865583016214</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>118.2897983389702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695015</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>230.8918931804939</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>179.2257555034844</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>60.5284388764435</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>105.6957300476867</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>105.6362181987841</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.002746217867899858</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>189.8944876315704</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>138.8756269271427</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465008</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.776449164532352</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.77644916452202</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>56.37087597909279</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>37.44283213477956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28541,7 +28541,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29705,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.197455209038191e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>8.119788366582661e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885555</v>
+        <v>3.753577726885563</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954667</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972539</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763188</v>
+        <v>477.4691627763199</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354928</v>
+        <v>592.342717135494</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359937</v>
+        <v>659.0954050359952</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525089</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230789</v>
+        <v>632.4356192307905</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983019</v>
+        <v>539.769169098303</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542137</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864755</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140487</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.300286218150845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436933</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026267</v>
+        <v>69.14683309026283</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502174</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571288</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617164</v>
+        <v>508.8678404617175</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152212</v>
+        <v>522.3360580152223</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.8354464519092</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947596</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366406</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133933</v>
+        <v>8.09502415413395</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415889</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490128</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.931664102313</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046259</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307411</v>
+        <v>75.70643221307428</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658783</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942748</v>
+        <v>7.194100917942764</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865033</v>
+        <v>0.09183958618650349</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430261</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>456.5952253539618</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>538.5853835133119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,22 +32785,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>665.2579603615019</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089033</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877681</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204534</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827495966</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705669</v>
+        <v>137.5343130705676</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313382</v>
+        <v>257.3793117313393</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655055</v>
+        <v>356.5763021655068</v>
       </c>
       <c r="M8" t="n">
-        <v>428.749171808721</v>
+        <v>428.7491718087225</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.347194155918</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091023</v>
+        <v>402.3374078091038</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430323</v>
+        <v>308.5361733430335</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797633</v>
+        <v>183.0384768797642</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234284</v>
+        <v>20.20013907234335</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127579</v>
+        <v>62.90656844127619</v>
       </c>
       <c r="K9" t="n">
-        <v>348.2365145216547</v>
+        <v>450.926849488437</v>
       </c>
       <c r="L9" t="n">
-        <v>640.1406900856953</v>
+        <v>297.5110943772547</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396981</v>
+        <v>366.7338065396992</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318879</v>
+        <v>390.994345931889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074637</v>
+        <v>335.2392020074648</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804285</v>
+        <v>489.4699258220928</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603485</v>
+        <v>116.3812106603491</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783569</v>
+        <v>24.53548676783596</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873311</v>
+        <v>25.68023017873337</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.8270281422861</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>73.1808046631519</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>322.6208179396315</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>396.4513495912935</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648388</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899029</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>522.6617159170574</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2124738.85590493</v>
+        <v>2126499.386207715</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015058</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>215.0845781150035</v>
       </c>
       <c r="D2" t="n">
-        <v>148.6865099692901</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>140.3622687076285</v>
+        <v>2.875953774683174</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.89987875502509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>262.3364400349696</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="C5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>123.7911484401891</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>89.14525753719006</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>42.60121031110863</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>16.86723868122138</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.06945288101422</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>162.1578472931577</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>15.02559286789977</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.5587268592431</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059663023</v>
+        <v>20.24979976115239</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.06308666747638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.304144087646</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784678</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>104.3471808964266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101254</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>208.7105534381766</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722606</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>135.3738350208472</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101254</v>
+        <v>31.40247677522967</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833905</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>74.53917159609117</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2371,10 +2371,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>59.31005804030052</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.2811815126420993</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>21.63824106824953</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.6670586121386</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>185.404873121236</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739736</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="C2" t="n">
-        <v>574.0438072739736</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133655997</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="F2" t="n">
         <v>150.5322560492186</v>
@@ -4327,55 +4327,55 @@
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791755</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052536</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.51749475159</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030597</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991306</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358402</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601761</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006023</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411512</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411512</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411512</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411512</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411512</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.4214638411512</v>
+        <v>900.5447187946894</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>337.3302090828924</v>
+        <v>198.4551434940588</v>
       </c>
       <c r="C3" t="n">
-        <v>162.8771798017654</v>
+        <v>24.00211421293179</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957454</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298711</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263947</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289997</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557294</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891328</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006023</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006023</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006023</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428367</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>591.567565811094</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>337.3302090828924</v>
+        <v>782.2822794846136</v>
       </c>
       <c r="X3" t="n">
-        <v>337.3302090828924</v>
+        <v>574.4307792790808</v>
       </c>
       <c r="Y3" t="n">
-        <v>337.3302090828924</v>
+        <v>366.6704805141268</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.2207521101576</v>
+        <v>478.0368704432901</v>
       </c>
       <c r="C4" t="n">
-        <v>439.2845691822507</v>
+        <v>478.0368704432901</v>
       </c>
       <c r="D4" t="n">
-        <v>439.2845691822507</v>
+        <v>327.9202310309544</v>
       </c>
       <c r="E4" t="n">
-        <v>291.3714755998576</v>
+        <v>180.0071374485613</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>33.1171899506509</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006023</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006023</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006023</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006023</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006023</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="W4" t="n">
-        <v>789.8692169403973</v>
+        <v>659.6853352735299</v>
       </c>
       <c r="X4" t="n">
-        <v>789.8692169403973</v>
+        <v>659.6853352735299</v>
       </c>
       <c r="Y4" t="n">
-        <v>789.8692169403973</v>
+        <v>659.6853352735299</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>432.4256445709454</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="C5" t="n">
-        <v>166.0479880037675</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356494</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4567,19 +4567,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298166</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>432.4256445709454</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>432.4256445709454</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>432.4256445709454</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>432.4256445709454</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>432.4256445709454</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298711</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263948</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289997</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557294</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212814</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>946.4739215287841</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U6" t="n">
-        <v>718.3380755655976</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="V6" t="n">
-        <v>483.1859673338549</v>
+        <v>671.0671133781216</v>
       </c>
       <c r="W6" t="n">
-        <v>228.9486106056533</v>
+        <v>416.8297566499199</v>
       </c>
       <c r="X6" t="n">
-        <v>21.09711040012049</v>
+        <v>208.9782564443871</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.1449104027198</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="C7" t="n">
-        <v>183.2087274748129</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>183.2087274748129</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2087274748129</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>36.31877997690253</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.31877997690253</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.31877997690253</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.31877997690253</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L7" t="n">
         <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O7" t="n">
         <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001375</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>533.7933752329595</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="X7" t="n">
-        <v>533.7933752329595</v>
+        <v>572.1814809021204</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.7933752329595</v>
+        <v>351.3889017585902</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>637.6587833110161</v>
+        <v>844.3675824845443</v>
       </c>
       <c r="C8" t="n">
-        <v>637.6587833110161</v>
+        <v>844.3675824845443</v>
       </c>
       <c r="D8" t="n">
-        <v>637.6587833110161</v>
+        <v>844.3675824845443</v>
       </c>
       <c r="E8" t="n">
-        <v>637.6587833110161</v>
+        <v>844.3675824845443</v>
       </c>
       <c r="F8" t="n">
-        <v>226.6728785214086</v>
+        <v>433.3816776949368</v>
       </c>
       <c r="G8" t="n">
-        <v>215.0070605534798</v>
+        <v>421.715859727008</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685583</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685583</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467177</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607436</v>
+        <v>442.1757437607419</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045958</v>
+        <v>795.1862829045924</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520959</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940602</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550205</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661172</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="T8" t="n">
-        <v>2351.810676439065</v>
+        <v>2545.385393809551</v>
       </c>
       <c r="U8" t="n">
-        <v>2098.229497964634</v>
+        <v>2291.804215335121</v>
       </c>
       <c r="V8" t="n">
-        <v>1767.166610621064</v>
+        <v>1960.74132799155</v>
       </c>
       <c r="W8" t="n">
-        <v>1414.39795535095</v>
+        <v>1607.972672721436</v>
       </c>
       <c r="X8" t="n">
-        <v>1414.39795535095</v>
+        <v>1234.506914460356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1024.258623375138</v>
+        <v>844.3675824845443</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010864</v>
+        <v>929.5097208010777</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199594</v>
+        <v>755.0566915199507</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587081</v>
+        <v>606.1222818586995</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532526</v>
+        <v>446.884826853244</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801376</v>
+        <v>300.350268880129</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763258</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530446212</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685583</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637193</v>
+        <v>167.3422431396302</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572718</v>
+        <v>613.7598241331822</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907539</v>
+        <v>908.2958075666634</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865056</v>
+        <v>1271.362276040965</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337626</v>
+        <v>1658.446678513534</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325016</v>
+        <v>1990.333488500923</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888888</v>
+        <v>2237.368846930547</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442634</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251707</v>
+        <v>2424.826280251698</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685356</v>
+        <v>2230.816477685347</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751585</v>
+        <v>2002.726321751577</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519843</v>
+        <v>1767.574213519834</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791641</v>
+        <v>1513.336856791632</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586108</v>
+        <v>1305.4853565861</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821154</v>
+        <v>1097.725057821146</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.2368923627312</v>
+        <v>1005.338550605575</v>
       </c>
       <c r="C10" t="n">
-        <v>292.3007094348243</v>
+        <v>836.4023676776684</v>
       </c>
       <c r="D10" t="n">
-        <v>142.1840700224886</v>
+        <v>686.2857282653326</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685583</v>
+        <v>538.3726346829395</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685583</v>
+        <v>391.4826871850291</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685583</v>
+        <v>223.4955623247199</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685583</v>
+        <v>74.75079468932637</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685583</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380186</v>
+        <v>76.63468308380146</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676575</v>
+        <v>248.2500215676567</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368932</v>
+        <v>523.3850043368918</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904052</v>
+        <v>823.8653899904033</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616503</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271479</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234518</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="X10" t="n">
-        <v>863.677936336501</v>
+        <v>1407.779594579345</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.8853571929709</v>
+        <v>1186.987015435815</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921471</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958707</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487564</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510506</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304619</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267658</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369641</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261104</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>986.1256051221252</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>817.1894221942183</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>667.0727827818826</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>519.1596891994894</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>372.2697417015791</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.91737983266</v>
+        <v>2415.243410069927</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.91737983266</v>
+        <v>2232.388575724832</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855601</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199799</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993912</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.556199993912</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.566649095895</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.774069952365</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998295</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998295</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998295</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>169.1087555692761</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>169.1087555692761</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6016,7 +6016,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,13 +6077,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>235.8125159357153</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929399</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F28" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>115.6734722078199</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,19 +6463,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6542,19 +6542,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
         <v>2516.421633107662</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6837,19 +6837,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192457</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.8386896933887</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>988.4871545236284</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7405,7 +7405,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7830,16 +7830,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
         <v>1491.508541327549</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127174</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446527</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775062</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127281</v>
+        <v>97.32166909127221</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.39745977364798</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>239.9392607416634</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348511</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>62.89964020220124</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>77.81244489841436</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>30.15030327142162</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>34.97276993489202</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.5498640939298</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>6.726664722474368</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>80.98465480592337</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6564717779744</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>105.8542358274168</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>37.91759473995617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>101.118125215355</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224537</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516052</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516054</v>
-      </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.284775254</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752541</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911926</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580814</v>
+        <v>390680.0076580787</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606917</v>
+        <v>507909.2320606934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911395</v>
+        <v>68999.15441911416</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910182</v>
+        <v>95270.23779101763</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250332.6659748622</v>
+        <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>250332.6659748622</v>
+        <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555018</v>
+        <v>139261.6527555024</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26453,7 +26453,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426617</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567913</v>
+        <v>92902.86757567896</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398213.166618716</v>
+        <v>-398213.1666187168</v>
       </c>
       <c r="C6" t="n">
-        <v>281874.8139724768</v>
+        <v>281874.8139724765</v>
       </c>
       <c r="D6" t="n">
-        <v>-27589.24483765692</v>
+        <v>-27589.24483765491</v>
       </c>
       <c r="E6" t="n">
-        <v>-34754.94465048279</v>
+        <v>-34442.30332156307</v>
       </c>
       <c r="F6" t="n">
-        <v>473154.2874102089</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="G6" t="n">
-        <v>473154.2874102088</v>
+        <v>473466.9287391302</v>
       </c>
       <c r="H6" t="n">
-        <v>473154.2874102095</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="I6" t="n">
-        <v>473154.287410209</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="J6" t="n">
-        <v>404155.1329910952</v>
+        <v>404467.7743200162</v>
       </c>
       <c r="K6" t="n">
-        <v>473154.2874102092</v>
+        <v>473466.9287391301</v>
       </c>
       <c r="L6" t="n">
-        <v>377884.0496191912</v>
+        <v>378196.6909481128</v>
       </c>
       <c r="M6" t="n">
-        <v>340436.3117147404</v>
+        <v>340748.9530436613</v>
       </c>
       <c r="N6" t="n">
-        <v>473154.2874102094</v>
+        <v>473466.9287391303</v>
       </c>
       <c r="O6" t="n">
-        <v>473154.2874102088</v>
+        <v>473466.9287391303</v>
       </c>
       <c r="P6" t="n">
-        <v>473154.2874102091</v>
+        <v>473466.9287391304</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627846</v>
+        <v>933.7024595627827</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856979</v>
+        <v>640.1406900856957</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933066</v>
+        <v>319.6474457933043</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788896</v>
+        <v>434.2730407788911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841918</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139512</v>
+        <v>532.5675980139526</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841918</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139512</v>
+        <v>532.5675980139526</v>
       </c>
       <c r="N4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841918</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139512</v>
+        <v>532.5675980139526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619748</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>150.1883136560041</v>
       </c>
       <c r="D2" t="n">
-        <v>205.9965316513928</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.216490070756</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.082796857010294</v>
+        <v>144.5691117899556</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,19 +27514,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>154.9837882835215</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>24.1865583016214</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.1648765455755</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695015</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>230.8918931804939</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>105.6957300476867</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>163.0814854661957</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>162.9647415007159</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002746217867899858</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>138.8756269271427</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465008</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>191.63897019679</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.77644916453059</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.77644916452202</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>56.37087597909279</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>81.51210565545351</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.168676190304566e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.168676190304566e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.119788366582661e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885563</v>
+        <v>3.753577726885556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546678</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972539</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763199</v>
+        <v>477.4691627763189</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135494</v>
+        <v>592.3427171354929</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359952</v>
+        <v>659.0954050359938</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525089</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307905</v>
+        <v>632.4356192307891</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098303</v>
+        <v>539.769169098302</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542137</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864755</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140487</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944156</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150845</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436933</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026283</v>
+        <v>69.14683309026269</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502174</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571288</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617175</v>
+        <v>508.8678404617165</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152223</v>
+        <v>522.3360580152213</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519092</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947596</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463701</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366406</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413395</v>
+        <v>8.095024154133935</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415889</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490128</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.931664102313</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462355</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046259</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708735</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939805</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307428</v>
+        <v>75.70643221307412</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658783</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942764</v>
+        <v>7.194100917942749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650349</v>
+        <v>0.09183958618650331</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430261</v>
+        <v>307.9814458135827</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33262,7 +33262,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877681</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966408</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827495966</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250137</v>
+        <v>215.5616691250132</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705676</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313393</v>
+        <v>257.3793117313384</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655068</v>
+        <v>356.5763021655056</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087225</v>
+        <v>428.7491718087211</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155918</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091038</v>
+        <v>402.3374078091024</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430335</v>
+        <v>308.5361733430324</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797642</v>
+        <v>183.0384768797634</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234335</v>
+        <v>20.20013907234286</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127619</v>
+        <v>117.3040282149238</v>
       </c>
       <c r="K9" t="n">
-        <v>450.926849488437</v>
+        <v>450.9268494884363</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772547</v>
+        <v>297.5110943772538</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396992</v>
+        <v>366.7338065396982</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931889</v>
+        <v>390.994345931888</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074648</v>
+        <v>335.2392020074638</v>
       </c>
       <c r="P9" t="n">
-        <v>489.4699258220928</v>
+        <v>249.5306650804286</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603491</v>
+        <v>326.4584983961977</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783596</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873337</v>
+        <v>25.68023017873313</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093289</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641536</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425464</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186655</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422861</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>73.1808046631519</v>
+        <v>169.4270660337085</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
